--- a/biology/Histoire de la zoologie et de la botanique/Nikolaus_Joseph_von_Jacquin/Nikolaus_Joseph_von_Jacquin.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Nikolaus_Joseph_von_Jacquin/Nikolaus_Joseph_von_Jacquin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le baron Nikolaus Joseph von Jacquin est un botaniste néerlandais du XVIIIe siècle, né à Leyde le 16 février 1727, mort à Vienne le 24 octobre 1817 qui se mit au service de l'empire d'Autriche.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il fait ses études à Anvers et à Leyde notamment auprès d'Adriaan van Royen. Il obtient, dans cette dernière ville, son titre de docteur en médecine en université de Leyde. Il se rend à Paris où il étudie auprès de Bernard de Jussieu.
 Il part pour Vienne où il passera l’essentiel de son existence à l'invitation de l'impératrice Marie-Thérèse. Il devient, en 1752, botaniste auprès de l’empereur François Ier. Il participe, comme botaniste, à une expédition scientifique dans les Caraïbes et en Amérique centrale de 1754 à 1759. Il constitue une importante collection de plantes, d’animaux et de minéraux. Certaines espèces végétales seront ensuite cultivées dans les jardins du palais de Schönbrunn. À son retour, en 1763, il devient professeur de minéralogie et de techniques minières à l’Académie des mines de Schemnitz puis, en 1768, professeur de chimie et de botanique à l’université de Vienne. Il y dirige également le jardin botanique de l’institution, jusqu'en 1796.
@@ -545,7 +559,9 @@
           <t>Hommages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Carl von Linné (1707-1778) lui a dédié le genre Jacquinia. Son nom est également associé aux espèces suivantes :
 Juncus jacquinii L. : le jonc de Jacquin.
